--- a/datasets/CHR_2023_Data_Dictionary_(XLSX).xlsx
+++ b/datasets/CHR_2023_Data_Dictionary_(XLSX).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzup\Documents\github\merrimack_university\capstone_project\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA49615-65BC-4617-BD7D-000B1C6EA874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F09099-026F-4465-BC99-D2200CB2D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1397" windowWidth="18214" windowHeight="16483" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29726" yWindow="-103" windowWidth="29829" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary 2023" sheetId="1" r:id="rId1"/>
@@ -5206,7 +5206,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <selection pane="bottomLeft" sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
